--- a/output/fit_clients/fit_round_119.xlsx
+++ b/output/fit_clients/fit_round_119.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2039046833.132168</v>
+        <v>1942414369.435964</v>
       </c>
       <c r="F2" t="n">
-        <v>0.113720199017078</v>
+        <v>0.08542719685168726</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03468833896179423</v>
+        <v>0.03232189555239616</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1019523417.406166</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1972095963.297924</v>
+        <v>1638318069.854722</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1742128383857582</v>
+        <v>0.1140646216325242</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03708590760665864</v>
+        <v>0.04411726694595244</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>986048017.3329091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4184979870.89798</v>
+        <v>3521690985.949706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1119818761615473</v>
+        <v>0.1136684012539613</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03484330174132791</v>
+        <v>0.03731887168554759</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2092489962.682655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2840488528.479515</v>
+        <v>3882603590.835897</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1052009195343013</v>
+        <v>0.1093135561267433</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03237841246800139</v>
+        <v>0.03833038091612371</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1420244344.606718</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2468169816.06329</v>
+        <v>1964255832.843815</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0906009152428788</v>
+        <v>0.1206966038516807</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04153656538158641</v>
+        <v>0.03899053237831641</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1234084886.911331</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2516896413.29286</v>
+        <v>1969911015.935748</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07834110339949013</v>
+        <v>0.06532051416762001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03391841160514231</v>
+        <v>0.03741081861219166</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1258448217.997739</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3925251222.941777</v>
+        <v>2880770524.572666</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1348099919056782</v>
+        <v>0.2030023370450288</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0253079036309212</v>
+        <v>0.02437389868274793</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>39</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1962625763.508816</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1796121471.06914</v>
+        <v>2075420702.254727</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1264278000272669</v>
+        <v>0.189630463577475</v>
       </c>
       <c r="G9" t="n">
-        <v>0.031141183897176</v>
+        <v>0.03111738341742578</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>898060790.382432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5325447109.245788</v>
+        <v>3819496295.867891</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1734968073017585</v>
+        <v>0.1655840577338762</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04677895358907263</v>
+        <v>0.05084507804476977</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2662723679.100255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3105977514.809614</v>
+        <v>3429216528.675683</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1562112697560016</v>
+        <v>0.1356093269532775</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03994061668940947</v>
+        <v>0.04044735006551037</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>49</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1552988707.661722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2769822694.23104</v>
+        <v>2682024489.045652</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1310850758539596</v>
+        <v>0.1504121783404808</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03743036540386867</v>
+        <v>0.04112482267131466</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>42</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1384911343.980303</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4195179828.769305</v>
+        <v>4843872915.939192</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07849742904725698</v>
+        <v>0.07955470355889695</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0223533415034905</v>
+        <v>0.02731074493303958</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>40</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2097589959.351616</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3697380063.093007</v>
+        <v>3502852077.404951</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1366612291954774</v>
+        <v>0.134291035805077</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02715575666525913</v>
+        <v>0.04016921239327993</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>38</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1848690015.431278</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1181000993.535386</v>
+        <v>1660969113.673962</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08117755533139019</v>
+        <v>0.08929763982497839</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03932162709741247</v>
+        <v>0.04727620521374511</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>590500509.8940316</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1755756346.777811</v>
+        <v>2264491612.956069</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1099668372006275</v>
+        <v>0.09879407831913163</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03958020872754304</v>
+        <v>0.03510357578276323</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18</v>
-      </c>
-      <c r="J16" t="n">
-        <v>877878270.6511419</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3307649506.5448</v>
+        <v>3999957523.371131</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1744238097879207</v>
+        <v>0.1578820357009043</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04217170642038847</v>
+        <v>0.05064352418243335</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>35</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1653824822.063338</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3668438289.982683</v>
+        <v>4020990020.768087</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1461862945507671</v>
+        <v>0.16764810586433</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03264038154345245</v>
+        <v>0.03297515563857684</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>39</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1834219126.805841</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>859228769.8560021</v>
+        <v>915761423.6357762</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1644801796464541</v>
+        <v>0.1847371664059284</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01708007806789065</v>
+        <v>0.02605102918766703</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>429614379.8343182</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2627470922.895881</v>
+        <v>1705514942.011423</v>
       </c>
       <c r="F20" t="n">
-        <v>0.129381784668873</v>
+        <v>0.1015624674447251</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02749926392685035</v>
+        <v>0.02716718932042664</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1313735420.900209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2520330269.952893</v>
+        <v>1989411666.987464</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09460851088255733</v>
+        <v>0.0741753522833109</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04324116158370898</v>
+        <v>0.03737963008231419</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1260165121.113588</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2448556048.939639</v>
+        <v>2637571916.14953</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1075179055684341</v>
+        <v>0.1234672796597819</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05467277864962614</v>
+        <v>0.04613323887102921</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>33</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1224278118.974569</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1262479781.451159</v>
+        <v>1262747767.201788</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1432822323243968</v>
+        <v>0.1382398232033688</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03704813334574485</v>
+        <v>0.03717066079390937</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>631239916.6286232</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3903742103.502795</v>
+        <v>3053438072.20662</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1299141168379282</v>
+        <v>0.1253118122035627</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03342828837332812</v>
+        <v>0.02544438087084947</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>35</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1951871026.173086</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1467811854.57075</v>
+        <v>1243466260.546991</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1207745144826173</v>
+        <v>0.08510777295397315</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02968588086337869</v>
+        <v>0.02456091283915844</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>733905883.5875229</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1033217643.23499</v>
+        <v>1239335721.51634</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08498839470014297</v>
+        <v>0.1162656893525959</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0337691224097457</v>
+        <v>0.02354520943215782</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>516608801.8146147</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4727303032.87813</v>
+        <v>4720061540.183739</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1163853169326065</v>
+        <v>0.1040449209634836</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02403129192620231</v>
+        <v>0.01741184756973315</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>27</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2363651490.389098</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2556615130.899319</v>
+        <v>3768907514.210795</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1106350508510367</v>
+        <v>0.1248040097525563</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04282605885028282</v>
+        <v>0.04563253993287229</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>38</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1278307538.137007</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5134121827.76961</v>
+        <v>4900488510.000788</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09833460860919867</v>
+        <v>0.111738818353117</v>
       </c>
       <c r="G29" t="n">
-        <v>0.041055222617396</v>
+        <v>0.0394283994509261</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>55</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2567060852.062429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1675279407.535988</v>
+        <v>2227116311.652845</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1260515493557394</v>
+        <v>0.09811049367975971</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03332196222725995</v>
+        <v>0.03701496247991033</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>837639704.1926149</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1492987993.443568</v>
+        <v>960466302.7322955</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07243242083633909</v>
+        <v>0.08925622182228074</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04039245847972216</v>
+        <v>0.04039513647417829</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>746493879.1797371</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1738286557.618549</v>
+        <v>1405897892.169432</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1169493882688476</v>
+        <v>0.1050000260744174</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0302440366499431</v>
+        <v>0.02819539416287299</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>869143396.4705693</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2968831599.612936</v>
+        <v>2224413880.75929</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1688028917897245</v>
+        <v>0.1426725375901348</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04066868070445381</v>
+        <v>0.04570275899779219</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>34</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1484415798.018835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1196749598.113748</v>
+        <v>1204524976.004797</v>
       </c>
       <c r="F34" t="n">
-        <v>0.112448329595017</v>
+        <v>0.09075096947822599</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0233213396323483</v>
+        <v>0.02463999290255319</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>598374804.5940366</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>860612216.2262013</v>
+        <v>1009660954.816822</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1064600136035997</v>
+        <v>0.1012855337369131</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03550505062313049</v>
+        <v>0.03184521898437426</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>430306157.2105222</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2630140856.726585</v>
+        <v>2478805973.307899</v>
       </c>
       <c r="F36" t="n">
-        <v>0.136901642195065</v>
+        <v>0.1198372173273747</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02831849847422858</v>
+        <v>0.02686047621864356</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>30</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1315070439.866224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2523962243.603896</v>
+        <v>2362425225.778551</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08989428562882909</v>
+        <v>0.07634862344754134</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03198978013334287</v>
+        <v>0.03915880297628924</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>32</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1261981221.110991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1465934449.562592</v>
+        <v>1576661717.857997</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1197046518391973</v>
+        <v>0.1221663257249616</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0365974997239945</v>
+        <v>0.03551070399019932</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>732967278.7969872</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1597396084.813707</v>
+        <v>2205642189.204408</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1177358480107918</v>
+        <v>0.1939457293029338</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02707384110574763</v>
+        <v>0.03254967218483384</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>798698097.9992335</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1289882453.57872</v>
+        <v>1646623289.308106</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1539417334427542</v>
+        <v>0.1193450157951904</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04447846555429219</v>
+        <v>0.05792005418707194</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>644941245.5090621</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2134933540.28403</v>
+        <v>2219175386.923339</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1520307638600345</v>
+        <v>0.1105943229443904</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04533229007987689</v>
+        <v>0.02989533238262191</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>29</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1067466831.129776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3368207124.997849</v>
+        <v>3295502695.969074</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1195845518045091</v>
+        <v>0.1202380317752698</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04569599972221228</v>
+        <v>0.04535521205662579</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1684103548.229815</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2094201364.870555</v>
+        <v>2163110096.383451</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1624724941030417</v>
+        <v>0.1768411158419398</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02477276156519467</v>
+        <v>0.01621485805955038</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>38</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1047100771.856381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1468053156.952341</v>
+        <v>2224553175.219809</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09168648046438116</v>
+        <v>0.06467266615938651</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02257962375586115</v>
+        <v>0.03518378604665374</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>734026578.6139393</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2032288807.743153</v>
+        <v>1675690699.50693</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1195170904257464</v>
+        <v>0.1526219941079232</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04543907697975952</v>
+        <v>0.04250138658101366</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1016144397.973676</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4961288096.585277</v>
+        <v>3999992293.947185</v>
       </c>
       <c r="F46" t="n">
-        <v>0.125393675640344</v>
+        <v>0.1715647464701182</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05195604426941058</v>
+        <v>0.04675432081971649</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>42</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2480644072.795069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4065878770.568933</v>
+        <v>3925170790.286176</v>
       </c>
       <c r="F47" t="n">
-        <v>0.148618046070367</v>
+        <v>0.1584193142347128</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03871810841921018</v>
+        <v>0.05827552170748734</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>32</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2032939388.090953</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3733424928.459989</v>
+        <v>3214563080.860251</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1077312096664849</v>
+        <v>0.1014837375332053</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0294988942998183</v>
+        <v>0.02711823007177114</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>41</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1866712514.037767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1664219532.269949</v>
+        <v>1505395342.044999</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1928675093833558</v>
+        <v>0.1273658833764635</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03293823858557367</v>
+        <v>0.04337712719444693</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>832109772.556362</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3803902594.272429</v>
+        <v>3931623285.168755</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1289139521933634</v>
+        <v>0.1405455797411384</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04966829609790545</v>
+        <v>0.03415196989826067</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>41</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1901951299.737908</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1276468102.921112</v>
+        <v>1040792726.016383</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1848674418556824</v>
+        <v>0.1244288561251697</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05081201703613784</v>
+        <v>0.05148618961565431</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>638234090.5732814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5112485957.508057</v>
+        <v>3430557290.864647</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1015787721659133</v>
+        <v>0.1355051307404485</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04747702178024387</v>
+        <v>0.05053323843194118</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>49</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2556242969.703613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3205196181.24005</v>
+        <v>3109649600.187569</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1686446687336866</v>
+        <v>0.199555744793715</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03159088808439153</v>
+        <v>0.02827498466741055</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>34</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1602598108.833214</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3770825702.901617</v>
+        <v>4245641081.95327</v>
       </c>
       <c r="F54" t="n">
-        <v>0.132424686286495</v>
+        <v>0.1070801893955207</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05237280102858772</v>
+        <v>0.04043148295539431</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>39</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1885412897.483486</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3550078835.807305</v>
+        <v>3280254541.937804</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1761391566419646</v>
+        <v>0.1922938562574375</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02357685082195632</v>
+        <v>0.02769124283073915</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1775039372.897678</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1486138013.842162</v>
+        <v>1246118408.041111</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1084195431151061</v>
+        <v>0.1588509877148126</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04120118990559224</v>
+        <v>0.04760024892494854</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>743069051.1970347</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4042948209.275547</v>
+        <v>3435972334.045819</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1503874384382302</v>
+        <v>0.1699225921958584</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02124557142858419</v>
+        <v>0.0199089931272161</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>38</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2021474196.55402</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1202078330.372039</v>
+        <v>1164146344.45738</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1224769230631033</v>
+        <v>0.1473146243968054</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03574190429857153</v>
+        <v>0.02431802098888019</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>601039223.4491413</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3805839440.53721</v>
+        <v>3487500724.282955</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1015734852744805</v>
+        <v>0.07992752461581668</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03941817228495249</v>
+        <v>0.0407138489731317</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1902919705.532729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2782840348.137367</v>
+        <v>3383889156.863248</v>
       </c>
       <c r="F60" t="n">
-        <v>0.161907990187748</v>
+        <v>0.174100955497305</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02594471608316023</v>
+        <v>0.02919187440334398</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>37</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1391420221.593114</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2170831699.385395</v>
+        <v>3043637844.289479</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1663309340441228</v>
+        <v>0.1582195734163358</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0244601155058537</v>
+        <v>0.02232175787688374</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>42</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1085415908.293602</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1853781656.76669</v>
+        <v>1915087821.914337</v>
       </c>
       <c r="F62" t="n">
-        <v>0.180171825449051</v>
+        <v>0.1213820733502792</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03064756243538616</v>
+        <v>0.03853079049008576</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>926890864.4614989</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5510744042.135895</v>
+        <v>5450805346.198806</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06951043826264984</v>
+        <v>0.09113380653348861</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04551487787984668</v>
+        <v>0.03385593261715454</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>34</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2755372016.003747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3818093357.344403</v>
+        <v>3626600146.130364</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1619817801963206</v>
+        <v>0.1180509881537847</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0241353763762685</v>
+        <v>0.0329408066616009</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>37</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1909046701.6721</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5686647535.151662</v>
+        <v>5718161956.737447</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1739139991352024</v>
+        <v>0.1438206662548334</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02919846804355632</v>
+        <v>0.02823238917285701</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>43</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2843323685.466417</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3504157157.938624</v>
+        <v>5091158919.471822</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1111478293609194</v>
+        <v>0.130607420417506</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03860475546302266</v>
+        <v>0.03679694161766595</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>35</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1752078525.897193</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3314617872.605418</v>
+        <v>2252130827.30715</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06488582237453949</v>
+        <v>0.06493764115313659</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04702489675608067</v>
+        <v>0.0492913146138682</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>39</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1657308927.907922</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4436323184.255063</v>
+        <v>5756662058.444642</v>
       </c>
       <c r="F68" t="n">
-        <v>0.140123137958877</v>
+        <v>0.1271857885270626</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04544149859713529</v>
+        <v>0.04988831409108235</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>38</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2218161614.307691</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1695940145.924362</v>
+        <v>2338856023.019981</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1156774410464272</v>
+        <v>0.1414359148359059</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04939311451045617</v>
+        <v>0.0397417135161921</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>847970038.5377026</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3041640182.512768</v>
+        <v>2478256782.138519</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07937696879697226</v>
+        <v>0.1002133137659508</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0316506247940798</v>
+        <v>0.03862331525228094</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>34</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1520820070.908442</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4761975602.149194</v>
+        <v>3558529716.223739</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1786822563668436</v>
+        <v>0.1120692172325397</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03247484752864949</v>
+        <v>0.02965530551741877</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>43</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2380987888.973183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2096909270.571212</v>
+        <v>2246758163.033348</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07631364649870159</v>
+        <v>0.07775231704571682</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03230489235586043</v>
+        <v>0.04792073507354721</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1048454565.956739</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2631727548.423495</v>
+        <v>2891530820.914693</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07320268347795601</v>
+        <v>0.06992117226180022</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04178430352258292</v>
+        <v>0.03711845045572133</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>45</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1315863803.860365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2987749041.296547</v>
+        <v>3245650363.837958</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1454217687428563</v>
+        <v>0.1562691825503427</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02179312891602063</v>
+        <v>0.02387819026943818</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>41</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1493874587.007794</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2197111040.533942</v>
+        <v>1550227451.225143</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1227073607445168</v>
+        <v>0.1242019316102516</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03666402387947925</v>
+        <v>0.03457824128190214</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1098555465.884013</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4834779744.440442</v>
+        <v>3265404603.241903</v>
       </c>
       <c r="F76" t="n">
-        <v>0.116034556410508</v>
+        <v>0.0960570582749769</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02604637979128298</v>
+        <v>0.03372945030929431</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>26</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2417389891.919487</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1760019402.291085</v>
+        <v>1993830502.21331</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1696996803327132</v>
+        <v>0.1673660423188475</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02902318618512504</v>
+        <v>0.02289282638787433</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>880009727.1720463</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4650547545.878421</v>
+        <v>3224630052.905668</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08723161005900526</v>
+        <v>0.1204605285856616</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04565777523488754</v>
+        <v>0.0474876116233138</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>41</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2325273692.030205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1708015825.404922</v>
+        <v>1556795513.780727</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1504170066537053</v>
+        <v>0.1411261770466402</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02768796557402332</v>
+        <v>0.03072454087931414</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>854007983.2381893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5219989767.50337</v>
+        <v>4711385734.44472</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09408818626847565</v>
+        <v>0.08145322860828975</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0260972669547157</v>
+        <v>0.03751054399266403</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>25</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2609994943.829688</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4006904340.685327</v>
+        <v>3271179345.926251</v>
       </c>
       <c r="F81" t="n">
-        <v>0.113723009501189</v>
+        <v>0.1157400909229875</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03211036067348383</v>
+        <v>0.02823892448385159</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2003452133.760494</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5107233923.145795</v>
+        <v>5628487279.271307</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1452864840045205</v>
+        <v>0.1887652823669282</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02513580485350543</v>
+        <v>0.01908502973000197</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2553616939.492966</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1746057856.291262</v>
+        <v>1521692572.615878</v>
       </c>
       <c r="F83" t="n">
-        <v>0.139594993908375</v>
+        <v>0.1229213515756491</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04111756337962671</v>
+        <v>0.0423528099786959</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>873028881.796005</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1980543594.423342</v>
+        <v>2510850484.68528</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08786330944662926</v>
+        <v>0.1064142497698999</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04019241272904944</v>
+        <v>0.0419008892347895</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>990271805.0067042</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3467871284.624992</v>
+        <v>2598485606.785433</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1304348362927769</v>
+        <v>0.1257531107260237</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04475074665433731</v>
+        <v>0.04761079195744108</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>45</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1733935754.067653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1847056920.639535</v>
+        <v>1753749081.732227</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1080738059417302</v>
+        <v>0.1391120742745958</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02404818958308065</v>
+        <v>0.01956332923001918</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>923528466.6367196</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1165209099.431509</v>
+        <v>1401590938.783404</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1309639795952734</v>
+        <v>0.1511192265073466</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02872941878297456</v>
+        <v>0.03573522043047136</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>582604596.3390216</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3549352897.142173</v>
+        <v>2587358162.364119</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1431130295381665</v>
+        <v>0.148422673733549</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03212624626527757</v>
+        <v>0.03333244305408516</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>47</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1774676533.242778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3095289431.056532</v>
+        <v>3270444597.971189</v>
       </c>
       <c r="F89" t="n">
-        <v>0.100180488060764</v>
+        <v>0.1198071652812377</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02934677951245057</v>
+        <v>0.02868555091663872</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>41</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1547644746.597708</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1433761441.398093</v>
+        <v>1453539776.306707</v>
       </c>
       <c r="F90" t="n">
-        <v>0.083588354304254</v>
+        <v>0.09957804625451439</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04700139294352693</v>
+        <v>0.04830747136627877</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>716880687.2457491</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2100577511.943058</v>
+        <v>1843227836.908274</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1829240278648227</v>
+        <v>0.1750682706896046</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04211486417648878</v>
+        <v>0.06205959451115326</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1050288714.773086</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1815982021.340321</v>
+        <v>2447591950.41651</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07795540083982259</v>
+        <v>0.08201872778523897</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04267860672695033</v>
+        <v>0.02950765174685144</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>27</v>
-      </c>
-      <c r="J92" t="n">
-        <v>907990942.9105426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3708279939.60879</v>
+        <v>4110808671.58159</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09380216985811042</v>
+        <v>0.1142823211180535</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04081992140524331</v>
+        <v>0.04291342385739407</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>36</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1854139989.24991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1973616516.840992</v>
+        <v>1765145325.003296</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1462566464864297</v>
+        <v>0.1081915739012999</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03592172080017276</v>
+        <v>0.04058001014801404</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>986808253.2940834</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2880156180.140699</v>
+        <v>3230935880.899058</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1356025581199549</v>
+        <v>0.09406582667021762</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05298040810010654</v>
+        <v>0.04458762232712645</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>27</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1440078098.445177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1866106829.177123</v>
+        <v>2074014729.538362</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1038223512020378</v>
+        <v>0.09314766939101056</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03912942537745383</v>
+        <v>0.03857900522650395</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>933053415.8192354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3782083419.742715</v>
+        <v>4752557463.22759</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1389124229393611</v>
+        <v>0.1372285765867783</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02785836441306849</v>
+        <v>0.02011227096652338</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>38</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1891041748.665142</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3571001642.453349</v>
+        <v>3395304751.321348</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1010096745001725</v>
+        <v>0.08450340535270469</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03050048163607448</v>
+        <v>0.02699305998427184</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>31</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1785500844.582795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2127803975.779061</v>
+        <v>2258030546.200324</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1219464377425166</v>
+        <v>0.1321108321597569</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02750158683256612</v>
+        <v>0.03348254967587021</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>36</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1063901910.574988</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4209346892.872529</v>
+        <v>3250474884.513144</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1353743305935268</v>
+        <v>0.1137368821275257</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0269093046124426</v>
+        <v>0.02558226244189212</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>36</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2104673533.751061</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2680440719.560154</v>
+        <v>2207073835.176629</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1942537395305759</v>
+        <v>0.2068358792066482</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04166865286623834</v>
+        <v>0.04011996316779865</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>49</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1340220406.554518</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_119.xlsx
+++ b/output/fit_clients/fit_round_119.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1942414369.435964</v>
+        <v>1727553921.900253</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08542719685168726</v>
+        <v>0.0979827992473432</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03232189555239616</v>
+        <v>0.04023725299134383</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1638318069.854722</v>
+        <v>1820874429.900599</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1140646216325242</v>
+        <v>0.1341721982750121</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04411726694595244</v>
+        <v>0.04471040475316384</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3521690985.949706</v>
+        <v>4705981774.689423</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1136684012539613</v>
+        <v>0.1254010074620002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03731887168554759</v>
+        <v>0.03588607125487819</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3882603590.835897</v>
+        <v>4119109764.795079</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1093135561267433</v>
+        <v>0.07856985078709271</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03833038091612371</v>
+        <v>0.03527304348597436</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1964255832.843815</v>
+        <v>2227788759.32624</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1206966038516807</v>
+        <v>0.1356610863111668</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03899053237831641</v>
+        <v>0.05183688576420433</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1969911015.935748</v>
+        <v>2116262474.686033</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06532051416762001</v>
+        <v>0.08896688527702282</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03741081861219166</v>
+        <v>0.03775134651801351</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2880770524.572666</v>
+        <v>3347130917.456522</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2030023370450288</v>
+        <v>0.207182380291852</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02437389868274793</v>
+        <v>0.02230166191289984</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2075420702.254727</v>
+        <v>2025774186.936808</v>
       </c>
       <c r="F9" t="n">
-        <v>0.189630463577475</v>
+        <v>0.1845623149135229</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03111738341742578</v>
+        <v>0.02904797921618052</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3819496295.867891</v>
+        <v>4963867707.100123</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1655840577338762</v>
+        <v>0.1675263552352946</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05084507804476977</v>
+        <v>0.05170240485072291</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3429216528.675683</v>
+        <v>3738864115.460202</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1356093269532775</v>
+        <v>0.1548594447137992</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04044735006551037</v>
+        <v>0.03411097495793183</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2682024489.045652</v>
+        <v>2762520715.308324</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1504121783404808</v>
+        <v>0.168977846266381</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04112482267131466</v>
+        <v>0.0409331923460254</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4843872915.939192</v>
+        <v>4771594635.813494</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07955470355889695</v>
+        <v>0.09457427160598258</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02731074493303958</v>
+        <v>0.02082671923155822</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3502852077.404951</v>
+        <v>3396682122.945355</v>
       </c>
       <c r="F14" t="n">
-        <v>0.134291035805077</v>
+        <v>0.1734280908764847</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04016921239327993</v>
+        <v>0.043743838861547</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1660969113.673962</v>
+        <v>1672246448.008388</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08929763982497839</v>
+        <v>0.08590131590821996</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04727620521374511</v>
+        <v>0.04637374646810912</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2264491612.956069</v>
+        <v>1810713639.938256</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09879407831913163</v>
+        <v>0.1049650149329652</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03510357578276323</v>
+        <v>0.03704904128119654</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3999957523.371131</v>
+        <v>4952215313.109346</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1578820357009043</v>
+        <v>0.1195976217809682</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05064352418243335</v>
+        <v>0.03490518571176122</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4020990020.768087</v>
+        <v>2440712823.23703</v>
       </c>
       <c r="F18" t="n">
-        <v>0.16764810586433</v>
+        <v>0.1401888342766126</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03297515563857684</v>
+        <v>0.02759807014383831</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>915761423.6357762</v>
+        <v>1005911046.565523</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1847371664059284</v>
+        <v>0.1480686394589462</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02605102918766703</v>
+        <v>0.02460713036773197</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1705514942.011423</v>
+        <v>2512411992.275458</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1015624674447251</v>
+        <v>0.1584380686143479</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02716718932042664</v>
+        <v>0.02189569316785411</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1989411666.987464</v>
+        <v>1891031469.503449</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0741753522833109</v>
+        <v>0.09810080539933855</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03737963008231419</v>
+        <v>0.0347766529400551</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2637571916.14953</v>
+        <v>2521549201.168435</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1234672796597819</v>
+        <v>0.1115342352173309</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04613323887102921</v>
+        <v>0.03472903503136457</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1262747767.201788</v>
+        <v>1417891131.61227</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1382398232033688</v>
+        <v>0.1722943550417845</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03717066079390937</v>
+        <v>0.0388148219862078</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3053438072.20662</v>
+        <v>4077716636.299403</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1253118122035627</v>
+        <v>0.1042835010985983</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02544438087084947</v>
+        <v>0.03610141168150648</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1243466260.546991</v>
+        <v>935981668.6250136</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08510777295397315</v>
+        <v>0.103094384350139</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02456091283915844</v>
+        <v>0.02967782307140418</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1239335721.51634</v>
+        <v>1082758543.552595</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1162656893525959</v>
+        <v>0.0815117149623442</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02354520943215782</v>
+        <v>0.02462893525007784</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4720061540.183739</v>
+        <v>3111854719.500442</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1040449209634836</v>
+        <v>0.1196782864188898</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01741184756973315</v>
+        <v>0.01824743887637741</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3768907514.210795</v>
+        <v>3586295704.943321</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1248040097525563</v>
+        <v>0.1474875889890364</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04563253993287229</v>
+        <v>0.04633291829317882</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4900488510.000788</v>
+        <v>5272466985.521985</v>
       </c>
       <c r="F29" t="n">
-        <v>0.111738818353117</v>
+        <v>0.1193453482088398</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0394283994509261</v>
+        <v>0.02983939575371133</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2227116311.652845</v>
+        <v>1928244936.645108</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09811049367975971</v>
+        <v>0.1322484851034518</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03701496247991033</v>
+        <v>0.0366024194788683</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>960466302.7322955</v>
+        <v>1163169189.01787</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08925622182228074</v>
+        <v>0.1073015027702702</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04039513647417829</v>
+        <v>0.04406249052853899</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1405897892.169432</v>
+        <v>1271607488.825727</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1050000260744174</v>
+        <v>0.09359931010989379</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02819539416287299</v>
+        <v>0.0354625329771086</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2224413880.75929</v>
+        <v>2990808202.156329</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1426725375901348</v>
+        <v>0.1975722811644878</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04570275899779219</v>
+        <v>0.05455150205523442</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1204524976.004797</v>
+        <v>1427959775.757024</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09075096947822599</v>
+        <v>0.1127036778160818</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02463999290255319</v>
+        <v>0.01862974543625696</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1009660954.816822</v>
+        <v>954692103.2213957</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1012855337369131</v>
+        <v>0.104892535975478</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03184521898437426</v>
+        <v>0.03485085712975124</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2478805973.307899</v>
+        <v>2810715173.125155</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1198372173273747</v>
+        <v>0.1326313256787618</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02686047621864356</v>
+        <v>0.0181254986670062</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2362425225.778551</v>
+        <v>2854098490.469689</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07634862344754134</v>
+        <v>0.08167067714502214</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03915880297628924</v>
+        <v>0.03619991361991199</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1576661717.857997</v>
+        <v>1775076811.966619</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1221663257249616</v>
+        <v>0.1092588696790793</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03551070399019932</v>
+        <v>0.03171351421086084</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2205642189.204408</v>
+        <v>1904720270.970415</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1939457293029338</v>
+        <v>0.1920996813585926</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03254967218483384</v>
+        <v>0.02994320186434969</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1646623289.308106</v>
+        <v>1538618397.592457</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1193450157951904</v>
+        <v>0.1281206709311983</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05792005418707194</v>
+        <v>0.04021877426533433</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2219175386.923339</v>
+        <v>2167483729.605537</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1105943229443904</v>
+        <v>0.1569882673004502</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02989533238262191</v>
+        <v>0.03732205228363687</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3295502695.969074</v>
+        <v>3708732286.393711</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1202380317752698</v>
+        <v>0.08345364115652658</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04535521205662579</v>
+        <v>0.04495127957455248</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2163110096.383451</v>
+        <v>3077286075.936103</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1768411158419398</v>
+        <v>0.1911298063839078</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01621485805955038</v>
+        <v>0.02182014413415182</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2224553175.219809</v>
+        <v>1803982249.085134</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06467266615938651</v>
+        <v>0.06460362437307671</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03518378604665374</v>
+        <v>0.02761325134765618</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1675690699.50693</v>
+        <v>1814761104.851298</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1526219941079232</v>
+        <v>0.1941287422223885</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04250138658101366</v>
+        <v>0.0343440907360783</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3999992293.947185</v>
+        <v>4897248207.275861</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1715647464701182</v>
+        <v>0.1573586961160221</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04675432081971649</v>
+        <v>0.04463848921077185</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3925170790.286176</v>
+        <v>4424409640.114594</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1584193142347128</v>
+        <v>0.1947599934932769</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05827552170748734</v>
+        <v>0.03838156797753813</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3214563080.860251</v>
+        <v>3612481397.500629</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1014837375332053</v>
+        <v>0.1046616872022376</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02711823007177114</v>
+        <v>0.02787505925671342</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1505395342.044999</v>
+        <v>1676551029.080906</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1273658833764635</v>
+        <v>0.163186793456958</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04337712719444693</v>
+        <v>0.02828273245784952</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3931623285.168755</v>
+        <v>3055982407.182903</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1405455797411384</v>
+        <v>0.1450021733763664</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03415196989826067</v>
+        <v>0.05268833349255943</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1040792726.016383</v>
+        <v>1152207327.332028</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1244288561251697</v>
+        <v>0.1369416977941641</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05148618961565431</v>
+        <v>0.0348370998949582</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3430557290.864647</v>
+        <v>3860948965.492967</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1355051307404485</v>
+        <v>0.1289436402481325</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05053323843194118</v>
+        <v>0.04850242675743794</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3109649600.187569</v>
+        <v>3189684639.443371</v>
       </c>
       <c r="F53" t="n">
-        <v>0.199555744793715</v>
+        <v>0.1788498769133445</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02827498466741055</v>
+        <v>0.02337236318002282</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4245641081.95327</v>
+        <v>4161953609.0923</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1070801893955207</v>
+        <v>0.1507610014319505</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04043148295539431</v>
+        <v>0.04944196138155307</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3280254541.937804</v>
+        <v>4944203278.469938</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1922938562574375</v>
+        <v>0.1809270943466416</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02769124283073915</v>
+        <v>0.02380786555630965</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1246118408.041111</v>
+        <v>1633635511.50323</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1588509877148126</v>
+        <v>0.154219765271278</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04760024892494854</v>
+        <v>0.05413453549752253</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3435972334.045819</v>
+        <v>4007033522.195571</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1699225921958584</v>
+        <v>0.1270600300752161</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0199089931272161</v>
+        <v>0.02725240888800056</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1164146344.45738</v>
+        <v>1702530393.140581</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1473146243968054</v>
+        <v>0.1529783761310191</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02431802098888019</v>
+        <v>0.03214251217755958</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3487500724.282955</v>
+        <v>5207514983.996019</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07992752461581668</v>
+        <v>0.1054457104692277</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0407138489731317</v>
+        <v>0.03181580856247529</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3383889156.863248</v>
+        <v>3239079086.698166</v>
       </c>
       <c r="F60" t="n">
-        <v>0.174100955497305</v>
+        <v>0.1963740340276622</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02919187440334398</v>
+        <v>0.02613933188996609</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3043637844.289479</v>
+        <v>2821967210.004396</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1582195734163358</v>
+        <v>0.1512352533749848</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02232175787688374</v>
+        <v>0.02238121696678047</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1915087821.914337</v>
+        <v>1283034443.520908</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1213820733502792</v>
+        <v>0.1735610347617644</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03853079049008576</v>
+        <v>0.04929873641187501</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5450805346.198806</v>
+        <v>4622251400.160663</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09113380653348861</v>
+        <v>0.09600949390378825</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03385593261715454</v>
+        <v>0.03426549430187961</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3626600146.130364</v>
+        <v>4779409446.038953</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1180509881537847</v>
+        <v>0.1848461604572303</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0329408066616009</v>
+        <v>0.02195572630619755</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5718161956.737447</v>
+        <v>4109329086.464611</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1438206662548334</v>
+        <v>0.1304991015135758</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02823238917285701</v>
+        <v>0.0292748664097602</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5091158919.471822</v>
+        <v>4053051723.171177</v>
       </c>
       <c r="F66" t="n">
-        <v>0.130607420417506</v>
+        <v>0.1460770160169979</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03679694161766595</v>
+        <v>0.03867452941229987</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2252130827.30715</v>
+        <v>2744183283.676701</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06493764115313659</v>
+        <v>0.06950112440170779</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0492913146138682</v>
+        <v>0.03787802238999897</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5756662058.444642</v>
+        <v>5339843675.374216</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1271857885270626</v>
+        <v>0.1476594859800029</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04988831409108235</v>
+        <v>0.03300664977710121</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2338856023.019981</v>
+        <v>2161132297.435141</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1414359148359059</v>
+        <v>0.1183321752851057</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0397417135161921</v>
+        <v>0.04757792666069257</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2478256782.138519</v>
+        <v>2939948790.453647</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1002133137659508</v>
+        <v>0.08892901631186183</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03862331525228094</v>
+        <v>0.04054489249641805</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3558529716.223739</v>
+        <v>5090126547.300277</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1120692172325397</v>
+        <v>0.1131786204230099</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02965530551741877</v>
+        <v>0.03111717372645866</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2246758163.033348</v>
+        <v>2053361812.426518</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07775231704571682</v>
+        <v>0.09985212973855603</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04792073507354721</v>
+        <v>0.03846042689239512</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2891530820.914693</v>
+        <v>2348400578.868567</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06992117226180022</v>
+        <v>0.09553138717212807</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03711845045572133</v>
+        <v>0.04164227861708478</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3245650363.837958</v>
+        <v>2467107596.619643</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1562691825503427</v>
+        <v>0.1257927717781527</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02387819026943818</v>
+        <v>0.02762590624734349</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1550227451.225143</v>
+        <v>1941735158.681999</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1242019316102516</v>
+        <v>0.1230132641241288</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03457824128190214</v>
+        <v>0.03154566600943382</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3265404603.241903</v>
+        <v>4180644205.55105</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0960570582749769</v>
+        <v>0.09320535201847409</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03372945030929431</v>
+        <v>0.0244556071849385</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1993830502.21331</v>
+        <v>1550339979.452506</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1673660423188475</v>
+        <v>0.1542249507072989</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02289282638787433</v>
+        <v>0.0265690942064977</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3224630052.905668</v>
+        <v>3497482580.814557</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1204605285856616</v>
+        <v>0.08418519508791943</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0474876116233138</v>
+        <v>0.05698314807807035</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1556795513.780727</v>
+        <v>1716455463.979322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1411261770466402</v>
+        <v>0.1666301594793476</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03072454087931414</v>
+        <v>0.02520863480279562</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4711385734.44472</v>
+        <v>3965982042.675278</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08145322860828975</v>
+        <v>0.09596372136287913</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03751054399266403</v>
+        <v>0.03417991566256754</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3271179345.926251</v>
+        <v>5178597801.428099</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1157400909229875</v>
+        <v>0.111406463064189</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02823892448385159</v>
+        <v>0.02803696720214832</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5628487279.271307</v>
+        <v>4755003597.18619</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1887652823669282</v>
+        <v>0.1838947372272898</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01908502973000197</v>
+        <v>0.02050928511010961</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1521692572.615878</v>
+        <v>1821991221.911297</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1229213515756491</v>
+        <v>0.1077464449313897</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0423528099786959</v>
+        <v>0.03376362031088656</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2510850484.68528</v>
+        <v>2344274965.924146</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1064142497698999</v>
+        <v>0.07483347640480552</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0419008892347895</v>
+        <v>0.05042231972757332</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2598485606.785433</v>
+        <v>2573474222.012537</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1257531107260237</v>
+        <v>0.1312769052329169</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04761079195744108</v>
+        <v>0.05528102799420666</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1753749081.732227</v>
+        <v>2341758640.123584</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1391120742745958</v>
+        <v>0.1394938624301096</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01956332923001918</v>
+        <v>0.02192228545091989</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1401590938.783404</v>
+        <v>1298904119.043974</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1511192265073466</v>
+        <v>0.1900050542399177</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03573522043047136</v>
+        <v>0.03164531599371181</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2587358162.364119</v>
+        <v>3744461329.487979</v>
       </c>
       <c r="F88" t="n">
-        <v>0.148422673733549</v>
+        <v>0.1123753408242838</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03333244305408516</v>
+        <v>0.02528703442913993</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3270444597.971189</v>
+        <v>2692498027.177309</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1198071652812377</v>
+        <v>0.1571963250101658</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02868555091663872</v>
+        <v>0.0415427061910881</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1453539776.306707</v>
+        <v>1680732323.151191</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09957804625451439</v>
+        <v>0.1054654533806292</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04830747136627877</v>
+        <v>0.04089091995736416</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1843227836.908274</v>
+        <v>2090223710.171021</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1750682706896046</v>
+        <v>0.1291717560036746</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06205959451115326</v>
+        <v>0.06104973215956969</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2447591950.41651</v>
+        <v>2447628367.854938</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08201872778523897</v>
+        <v>0.09986885360949317</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02950765174685144</v>
+        <v>0.03237765980711068</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4110808671.58159</v>
+        <v>3732334708.309836</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1142823211180535</v>
+        <v>0.1021485621549266</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04291342385739407</v>
+        <v>0.04369829371291272</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1765145325.003296</v>
+        <v>1870511328.788901</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1081915739012999</v>
+        <v>0.1647515753738217</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04058001014801404</v>
+        <v>0.0397872938708931</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3230935880.899058</v>
+        <v>2280145542.974932</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09406582667021762</v>
+        <v>0.1270834560259574</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04458762232712645</v>
+        <v>0.03688835771883281</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2074014729.538362</v>
+        <v>1798366615.577674</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09314766939101056</v>
+        <v>0.1190574311645934</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03857900522650395</v>
+        <v>0.04713560640813418</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4752557463.22759</v>
+        <v>5150065355.946813</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1372285765867783</v>
+        <v>0.1461093002104091</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02011227096652338</v>
+        <v>0.02640068528687307</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3395304751.321348</v>
+        <v>2836726110.41529</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08450340535270469</v>
+        <v>0.08727467866055097</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02699305998427184</v>
+        <v>0.02033091535063864</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2258030546.200324</v>
+        <v>3071356369.517647</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1321108321597569</v>
+        <v>0.1317648013979514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03348254967587021</v>
+        <v>0.02311467616793425</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3250474884.513144</v>
+        <v>4052467041.003358</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1137368821275257</v>
+        <v>0.1625778447982802</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02558226244189212</v>
+        <v>0.02398124858275987</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2207073835.176629</v>
+        <v>2633798047.838124</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2068358792066482</v>
+        <v>0.1771391221738255</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04011996316779865</v>
+        <v>0.05001065532899738</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_119.xlsx
+++ b/output/fit_clients/fit_round_119.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1727553921.900253</v>
+        <v>1636917561.431259</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0979827992473432</v>
+        <v>0.08643898152409057</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04023725299134383</v>
+        <v>0.04188735668371593</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1820874429.900599</v>
+        <v>2156157654.550348</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1341721982750121</v>
+        <v>0.1658482654545754</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04471040475316384</v>
+        <v>0.03171680003583943</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4705981774.689423</v>
+        <v>3643597830.324283</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1254010074620002</v>
+        <v>0.1460778505126542</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03588607125487819</v>
+        <v>0.03586855864474825</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>72</v>
+      </c>
+      <c r="J4" t="n">
+        <v>118</v>
+      </c>
+      <c r="K4" t="n">
+        <v>132.1469942561666</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4119109764.795079</v>
+        <v>2834074689.251561</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07856985078709271</v>
+        <v>0.08649625665212424</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03527304348597436</v>
+        <v>0.04652007783682932</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>109</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2227788759.32624</v>
+        <v>2106805987.938218</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1356610863111668</v>
+        <v>0.1161955053124303</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05183688576420433</v>
+        <v>0.04414969258099737</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2116262474.686033</v>
+        <v>2837803487.400769</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08896688527702282</v>
+        <v>0.1019959656280367</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03775134651801351</v>
+        <v>0.04205760818087294</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3347130917.456522</v>
+        <v>3000287203.447972</v>
       </c>
       <c r="F8" t="n">
-        <v>0.207182380291852</v>
+        <v>0.1878794760447473</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02230166191289984</v>
+        <v>0.03291832114668758</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>34</v>
+      </c>
+      <c r="J8" t="n">
+        <v>117</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2025774186.936808</v>
+        <v>2205664938.434108</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1845623149135229</v>
+        <v>0.1699318387017393</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02904797921618052</v>
+        <v>0.03684415969462997</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4963867707.100123</v>
+        <v>4020164297.00497</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1675263552352946</v>
+        <v>0.1672963274341102</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05170240485072291</v>
+        <v>0.04416068672402334</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>108</v>
+      </c>
+      <c r="J10" t="n">
+        <v>119</v>
+      </c>
+      <c r="K10" t="n">
+        <v>167.7276748867131</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3738864115.460202</v>
+        <v>3674069447.706012</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1548594447137992</v>
+        <v>0.1592910179100409</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03411097495793183</v>
+        <v>0.04693385144335628</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>49</v>
+      </c>
+      <c r="J11" t="n">
+        <v>119</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2762520715.308324</v>
+        <v>3012537067.020321</v>
       </c>
       <c r="F12" t="n">
-        <v>0.168977846266381</v>
+        <v>0.1898028747825475</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0409331923460254</v>
+        <v>0.03424930856967002</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4771594635.813494</v>
+        <v>3323199257.885733</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09457427160598258</v>
+        <v>0.08997366034213408</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02082671923155822</v>
+        <v>0.02579464985528404</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>58</v>
+      </c>
+      <c r="J13" t="n">
+        <v>115</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3396682122.945355</v>
+        <v>2608919652.801701</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1734280908764847</v>
+        <v>0.1389970597836653</v>
       </c>
       <c r="G14" t="n">
-        <v>0.043743838861547</v>
+        <v>0.04269918854259361</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>115</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1672246448.008388</v>
+        <v>1484845837.325617</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08590131590821996</v>
+        <v>0.08958419538415151</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04637374646810912</v>
+        <v>0.03316965990863729</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1810713639.938256</v>
+        <v>2120200326.48254</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1049650149329652</v>
+        <v>0.07872553755669068</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03704904128119654</v>
+        <v>0.0350187100527624</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4952215313.109346</v>
+        <v>4552103161.987373</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1195976217809682</v>
+        <v>0.1063367261873184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03490518571176122</v>
+        <v>0.04486688166380674</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>57</v>
+      </c>
+      <c r="J17" t="n">
+        <v>119</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2440712823.23703</v>
+        <v>3926906240.334369</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1401888342766126</v>
+        <v>0.1392111681235292</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02759807014383831</v>
+        <v>0.03085709411031044</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31</v>
+      </c>
+      <c r="J18" t="n">
+        <v>119</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1005911046.565523</v>
+        <v>1065967799.498701</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1480686394589462</v>
+        <v>0.1227591195004288</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02460713036773197</v>
+        <v>0.02727103684615681</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2512411992.275458</v>
+        <v>2270562104.935493</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1584380686143479</v>
+        <v>0.1603253030052028</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02189569316785411</v>
+        <v>0.02329139213367504</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1891031469.503449</v>
+        <v>1767937490.882716</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09810080539933855</v>
+        <v>0.09305151669783931</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0347766529400551</v>
+        <v>0.02875412556667389</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1205,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2521549201.168435</v>
+        <v>3335743902.87914</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1115342352173309</v>
+        <v>0.1019073249540183</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03472903503136457</v>
+        <v>0.03583306957576987</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>31</v>
+      </c>
+      <c r="J22" t="n">
+        <v>118</v>
+      </c>
+      <c r="K22" t="n">
+        <v>102.5456153341002</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1417891131.61227</v>
+        <v>1471046798.667881</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1722943550417845</v>
+        <v>0.1315715958776354</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0388148219862078</v>
+        <v>0.04144439435428585</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4077716636.299403</v>
+        <v>2823091026.546108</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1042835010985983</v>
+        <v>0.126779941737695</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03610141168150648</v>
+        <v>0.02595271416344066</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>36</v>
+      </c>
+      <c r="J24" t="n">
+        <v>118</v>
+      </c>
+      <c r="K24" t="n">
+        <v>74.25856545563785</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>935981668.6250136</v>
+        <v>1435228112.703703</v>
       </c>
       <c r="F25" t="n">
-        <v>0.103094384350139</v>
+        <v>0.07800624191531073</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02967782307140418</v>
+        <v>0.02836126945529224</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1082758543.552595</v>
+        <v>1274851438.477055</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0815117149623442</v>
+        <v>0.0929258229659444</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02462893525007784</v>
+        <v>0.02786308570187191</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3111854719.500442</v>
+        <v>3432996190.965949</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1196782864188898</v>
+        <v>0.1260836975990758</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01824743887637741</v>
+        <v>0.01952250818257869</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>47</v>
+      </c>
+      <c r="J27" t="n">
+        <v>117</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3586295704.943321</v>
+        <v>2618245239.272684</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1474875889890364</v>
+        <v>0.1291166901487012</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04633291829317882</v>
+        <v>0.03318782113697363</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>117</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5272466985.521985</v>
+        <v>3875568896.946972</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1193453482088398</v>
+        <v>0.1089738422886962</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02983939575371133</v>
+        <v>0.03748456935777241</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>110</v>
+      </c>
+      <c r="J29" t="n">
+        <v>119</v>
+      </c>
+      <c r="K29" t="n">
+        <v>178.6483751189992</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1928244936.645108</v>
+        <v>2304026646.585101</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1322484851034518</v>
+        <v>0.1122062379877428</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0366024194788683</v>
+        <v>0.03357691220579944</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1163169189.01787</v>
+        <v>1017336062.473712</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1073015027702702</v>
+        <v>0.09791219740262906</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04406249052853899</v>
+        <v>0.04261016892705435</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1271607488.825727</v>
+        <v>1719468604.567653</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09359931010989379</v>
+        <v>0.1041121553425643</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0354625329771086</v>
+        <v>0.03670809796131457</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2990808202.156329</v>
+        <v>2409424713.166055</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1975722811644878</v>
+        <v>0.1950771191129021</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05455150205523442</v>
+        <v>0.03729769357949259</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1427959775.757024</v>
+        <v>1186313619.179363</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1127036778160818</v>
+        <v>0.1125322645189168</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01862974543625696</v>
+        <v>0.02667380944044363</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>954692103.2213957</v>
+        <v>1236960632.82951</v>
       </c>
       <c r="F35" t="n">
-        <v>0.104892535975478</v>
+        <v>0.08623458213651058</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03485085712975124</v>
+        <v>0.04071939642940219</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2810715173.125155</v>
+        <v>2697153991.194837</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1326313256787618</v>
+        <v>0.1312580791485146</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0181254986670062</v>
+        <v>0.01858207154072819</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2854098490.469689</v>
+        <v>1830705871.74088</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08167067714502214</v>
+        <v>0.09246422579169954</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03619991361991199</v>
+        <v>0.02721494928027635</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1775076811.966619</v>
+        <v>1612517635.166631</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1092588696790793</v>
+        <v>0.1056376787008069</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03171351421086084</v>
+        <v>0.03881624264711251</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1904720270.970415</v>
+        <v>1769591354.375852</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1920996813585926</v>
+        <v>0.1783150456587307</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02994320186434969</v>
+        <v>0.02977880107085133</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1538618397.592457</v>
+        <v>1150409086.449676</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1281206709311983</v>
+        <v>0.1221686003287692</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04021877426533433</v>
+        <v>0.05464343536843082</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2167483729.605537</v>
+        <v>2828476362.417751</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1569882673004502</v>
+        <v>0.1068081415566869</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03732205228363687</v>
+        <v>0.04594195543690094</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3708732286.393711</v>
+        <v>3275428696.429319</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08345364115652658</v>
+        <v>0.09837597036170687</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04495127957455248</v>
+        <v>0.04230985582230002</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>42</v>
+      </c>
+      <c r="J42" t="n">
+        <v>113</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3077286075.936103</v>
+        <v>2324924881.648948</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1911298063839078</v>
+        <v>0.1696524530131491</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02182014413415182</v>
+        <v>0.02556205104309816</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1803982249.085134</v>
+        <v>1814927298.084698</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06460362437307671</v>
+        <v>0.06386734064702382</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02761325134765618</v>
+        <v>0.03599866575231725</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1814761104.851298</v>
+        <v>2310205555.155715</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1941287422223885</v>
+        <v>0.1482042032137254</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0343440907360783</v>
+        <v>0.04934485549200433</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4897248207.275861</v>
+        <v>4448036696.295407</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1573586961160221</v>
+        <v>0.1139452951551555</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04463848921077185</v>
+        <v>0.04702802668731867</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>68</v>
+      </c>
+      <c r="J46" t="n">
+        <v>119</v>
+      </c>
+      <c r="K46" t="n">
+        <v>154.3447992037388</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4424409640.114594</v>
+        <v>4504092878.003832</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1947599934932769</v>
+        <v>0.1536015047396994</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03838156797753813</v>
+        <v>0.04443579896964354</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>53</v>
+      </c>
+      <c r="J47" t="n">
+        <v>118</v>
+      </c>
+      <c r="K47" t="n">
+        <v>125.7039317691268</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3612481397.500629</v>
+        <v>3645401888.343929</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1046616872022376</v>
+        <v>0.1090634810416645</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02787505925671342</v>
+        <v>0.03199253120766168</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>45</v>
+      </c>
+      <c r="J48" t="n">
+        <v>119</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1676551029.080906</v>
+        <v>1506352576.471836</v>
       </c>
       <c r="F49" t="n">
-        <v>0.163186793456958</v>
+        <v>0.1405584599378972</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02828273245784952</v>
+        <v>0.03504087308045145</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3055982407.182903</v>
+        <v>3446790755.57737</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1450021733763664</v>
+        <v>0.1451737148969905</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05268833349255943</v>
+        <v>0.04916618892770273</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>41</v>
+      </c>
+      <c r="J50" t="n">
+        <v>117</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1152207327.332028</v>
+        <v>995159766.2211374</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1369416977941641</v>
+        <v>0.1943161494437062</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0348370998949582</v>
+        <v>0.04745026008707792</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3860948965.492967</v>
+        <v>3433218632.248342</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1289436402481325</v>
+        <v>0.1377220662725198</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04850242675743794</v>
+        <v>0.04777555361667318</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>93</v>
+      </c>
+      <c r="J52" t="n">
+        <v>118</v>
+      </c>
+      <c r="K52" t="n">
+        <v>123.0953854986272</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3189684639.443371</v>
+        <v>3400521244.094628</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1788498769133445</v>
+        <v>0.2046244993339697</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02337236318002282</v>
+        <v>0.02335820354137156</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>13</v>
+      </c>
+      <c r="J53" t="n">
+        <v>115</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4161953609.0923</v>
+        <v>4361726289.315992</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1507610014319505</v>
+        <v>0.107879970220725</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04944196138155307</v>
+        <v>0.03527357724564692</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>54</v>
+      </c>
+      <c r="J54" t="n">
+        <v>119</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4944203278.469938</v>
+        <v>4150997378.923665</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1809270943466416</v>
+        <v>0.1682998375127649</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02380786555630965</v>
+        <v>0.02024551803513289</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>54</v>
+      </c>
+      <c r="J55" t="n">
+        <v>119</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1633635511.50323</v>
+        <v>1493416323.820811</v>
       </c>
       <c r="F56" t="n">
-        <v>0.154219765271278</v>
+        <v>0.1390399044236638</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05413453549752253</v>
+        <v>0.03509733957270836</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4007033522.195571</v>
+        <v>3683585855.38598</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1270600300752161</v>
+        <v>0.1495587921158732</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02725240888800056</v>
+        <v>0.01739189900716312</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>46</v>
+      </c>
+      <c r="J57" t="n">
+        <v>119</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1702530393.140581</v>
+        <v>1531068727.996336</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1529783761310191</v>
+        <v>0.1795049939173679</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03214251217755958</v>
+        <v>0.03893730031402484</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2512,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5207514983.996019</v>
+        <v>4793789262.322701</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1054457104692277</v>
+        <v>0.08296228032612261</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03181580856247529</v>
+        <v>0.03093704417323217</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>58</v>
+      </c>
+      <c r="J59" t="n">
+        <v>118</v>
+      </c>
+      <c r="K59" t="n">
+        <v>141.0397060228672</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2543,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3239079086.698166</v>
+        <v>3458025951.13671</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1963740340276622</v>
+        <v>0.1959331802896516</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02613933188996609</v>
+        <v>0.02713790257095643</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>118</v>
+      </c>
+      <c r="K60" t="n">
+        <v>118.7138396556584</v>
       </c>
     </row>
     <row r="61">
@@ -2138,16 +2586,25 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2821967210.004396</v>
+        <v>3400705581.084563</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1512352533749848</v>
+        <v>0.1514461885416782</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02238121696678047</v>
+        <v>0.02125004140463312</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="n">
+        <v>124.0192998709871</v>
       </c>
     </row>
     <row r="62">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1283034443.520908</v>
+        <v>1638974769.285595</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1735610347617644</v>
+        <v>0.1236124999035876</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04929873641187501</v>
+        <v>0.04826370992479256</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4622251400.160663</v>
+        <v>4984132873.541215</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09600949390378825</v>
+        <v>0.1021941561814329</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03426549430187961</v>
+        <v>0.03281070179754947</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>59</v>
+      </c>
+      <c r="J63" t="n">
+        <v>118</v>
+      </c>
+      <c r="K63" t="n">
+        <v>137.4414673639414</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4779409446.038953</v>
+        <v>3936295308.95801</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1848461604572303</v>
+        <v>0.1892224439498748</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02195572630619755</v>
+        <v>0.03282885666322437</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>59</v>
+      </c>
+      <c r="J64" t="n">
+        <v>118</v>
+      </c>
+      <c r="K64" t="n">
+        <v>145.8124795900618</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4109329086.464611</v>
+        <v>4284526958.192163</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1304991015135758</v>
+        <v>0.1547631830251284</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0292748664097602</v>
+        <v>0.0248088826390379</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>99</v>
+      </c>
+      <c r="J65" t="n">
+        <v>119</v>
+      </c>
+      <c r="K65" t="n">
+        <v>156.8653190404134</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4053051723.171177</v>
+        <v>4721465212.915656</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1460770160169979</v>
+        <v>0.1396769809871807</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03867452941229987</v>
+        <v>0.05058103709478173</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>58</v>
+      </c>
+      <c r="J66" t="n">
+        <v>119</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2744183283.676701</v>
+        <v>2848540915.452666</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06950112440170779</v>
+        <v>0.06995527526385738</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03787802238999897</v>
+        <v>0.04980025632738422</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5339843675.374216</v>
+        <v>5319706767.985872</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1476594859800029</v>
+        <v>0.1099173060667208</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03300664977710121</v>
+        <v>0.04114721477302438</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>59</v>
+      </c>
+      <c r="J68" t="n">
+        <v>119</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2161132297.435141</v>
+        <v>2022008855.593881</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1183321752851057</v>
+        <v>0.1194130439502882</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04757792666069257</v>
+        <v>0.05045218497354438</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2939948790.453647</v>
+        <v>2488280316.765204</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08892901631186183</v>
+        <v>0.08733737331480668</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04054489249641805</v>
+        <v>0.03253156035236853</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>114</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5090126547.300277</v>
+        <v>3801155006.384752</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1131786204230099</v>
+        <v>0.1183920461131431</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03111717372645866</v>
+        <v>0.03384239586577484</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>97</v>
+      </c>
+      <c r="J71" t="n">
+        <v>118</v>
+      </c>
+      <c r="K71" t="n">
+        <v>148.7808723243813</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2053361812.426518</v>
+        <v>1644765645.545501</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09985212973855603</v>
+        <v>0.1033812210758577</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03846042689239512</v>
+        <v>0.03795703291567197</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,16 +3016,25 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2348400578.868567</v>
+        <v>2399637887.992146</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09553138717212807</v>
+        <v>0.09855878002978069</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04164227861708478</v>
+        <v>0.05037299483118805</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="n">
+        <v>61.98394029291014</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2467107596.619643</v>
+        <v>3399455582.894925</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1257927717781527</v>
+        <v>0.1132444308659635</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02762590624734349</v>
+        <v>0.02249223977650844</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>40</v>
+      </c>
+      <c r="J74" t="n">
+        <v>118</v>
+      </c>
+      <c r="K74" t="n">
+        <v>115.4070963642562</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1941735158.681999</v>
+        <v>2252361805.823619</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1230132641241288</v>
+        <v>0.158338436945981</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03154566600943382</v>
+        <v>0.0378915436731684</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4180644205.55105</v>
+        <v>4823564203.39584</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09320535201847409</v>
+        <v>0.1146873270539684</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0244556071849385</v>
+        <v>0.02361787467296194</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>55</v>
+      </c>
+      <c r="J76" t="n">
+        <v>119</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1550339979.452506</v>
+        <v>1408562414.770758</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1542249507072989</v>
+        <v>0.1495879116667097</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0265690942064977</v>
+        <v>0.02044256704287338</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3497482580.814557</v>
+        <v>4260119786.340324</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08418519508791943</v>
+        <v>0.1003009751220725</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05698314807807035</v>
+        <v>0.05619849996488736</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>59</v>
+      </c>
+      <c r="J78" t="n">
+        <v>119</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1716455463.979322</v>
+        <v>1820783137.844504</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1666301594793476</v>
+        <v>0.1262119905719814</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02520863480279562</v>
+        <v>0.03924613079961798</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3965982042.675278</v>
+        <v>5567238720.043312</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09596372136287913</v>
+        <v>0.09027854223954372</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03417991566256754</v>
+        <v>0.03225805578660765</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>57</v>
+      </c>
+      <c r="J80" t="n">
+        <v>119</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5178597801.428099</v>
+        <v>3933062175.184314</v>
       </c>
       <c r="F81" t="n">
-        <v>0.111406463064189</v>
+        <v>0.1259551811709034</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02803696720214832</v>
+        <v>0.02012991657339993</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>53</v>
+      </c>
+      <c r="J81" t="n">
+        <v>119</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4755003597.18619</v>
+        <v>5279958876.518753</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1838947372272898</v>
+        <v>0.2158700227398284</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02050928511010961</v>
+        <v>0.0263250650931349</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>82</v>
+      </c>
+      <c r="J82" t="n">
+        <v>119</v>
+      </c>
+      <c r="K82" t="n">
+        <v>161.6213687755359</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1821991221.911297</v>
+        <v>1758948659.734047</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1077464449313897</v>
+        <v>0.1337630925849211</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03376362031088656</v>
+        <v>0.03237260727361625</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2344274965.924146</v>
+        <v>2287460838.044009</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07483347640480552</v>
+        <v>0.1139806257216329</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05042231972757332</v>
+        <v>0.0413442110525154</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2573474222.012537</v>
+        <v>3333588106.996525</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1312769052329169</v>
+        <v>0.1291983236867082</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05528102799420666</v>
+        <v>0.05083986823461471</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2341758640.123584</v>
+        <v>2440932130.547388</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1394938624301096</v>
+        <v>0.1490962331333311</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02192228545091989</v>
+        <v>0.02155816979728141</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1298904119.043974</v>
+        <v>1057561663.653206</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1900050542399177</v>
+        <v>0.1619320938651829</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03164531599371181</v>
+        <v>0.04096746914746344</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3744461329.487979</v>
+        <v>3008178111.88016</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1123753408242838</v>
+        <v>0.1103067596464139</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02528703442913993</v>
+        <v>0.02659492482749188</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2692498027.177309</v>
+        <v>3136709205.595483</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1571963250101658</v>
+        <v>0.1068904825934766</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0415427061910881</v>
+        <v>0.04172581130523899</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1680732323.151191</v>
+        <v>2030476768.216335</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1054654533806292</v>
+        <v>0.09580450181857231</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04089091995736416</v>
+        <v>0.04853638381982218</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2090223710.171021</v>
+        <v>1976176109.753123</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1291717560036746</v>
+        <v>0.1776240700448196</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06104973215956969</v>
+        <v>0.05423018419187461</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2447628367.854938</v>
+        <v>3001948908.603974</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09986885360949317</v>
+        <v>0.1067551554416631</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03237765980711068</v>
+        <v>0.04129479287250409</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3732334708.309836</v>
+        <v>3509205789.044093</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1021485621549266</v>
+        <v>0.1366971671552031</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04369829371291272</v>
+        <v>0.05327362838848814</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>54</v>
+      </c>
+      <c r="J93" t="n">
+        <v>119</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1870511328.788901</v>
+        <v>2423290661.635077</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1647515753738217</v>
+        <v>0.1432399274018453</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0397872938708931</v>
+        <v>0.03095313504443883</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2280145542.974932</v>
+        <v>2337461589.713359</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1270834560259574</v>
+        <v>0.1219715215486355</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03688835771883281</v>
+        <v>0.03783717891019103</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1798366615.577674</v>
+        <v>2208608717.926056</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1190574311645934</v>
+        <v>0.1370966241966426</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04713560640813418</v>
+        <v>0.03063096922754963</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5150065355.946813</v>
+        <v>4037244595.932011</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1461093002104091</v>
+        <v>0.1739750937976961</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02640068528687307</v>
+        <v>0.01949807824965715</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>57</v>
+      </c>
+      <c r="J97" t="n">
+        <v>118</v>
+      </c>
+      <c r="K97" t="n">
+        <v>150.0360882419183</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2836726110.41529</v>
+        <v>3213528937.102902</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08727467866055097</v>
+        <v>0.103586100160242</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02033091535063864</v>
+        <v>0.02689912531226616</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>28</v>
+      </c>
+      <c r="J98" t="n">
+        <v>116</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3071356369.517647</v>
+        <v>2667029038.216831</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1317648013979514</v>
+        <v>0.09338517124652723</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02311467616793425</v>
+        <v>0.03166939459169969</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4052467041.003358</v>
+        <v>4360470460.310147</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1625778447982802</v>
+        <v>0.1417544699569744</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02398124858275987</v>
+        <v>0.0213435809065388</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>49</v>
+      </c>
+      <c r="J100" t="n">
+        <v>118</v>
+      </c>
+      <c r="K100" t="n">
+        <v>140.3730035878215</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2633798047.838124</v>
+        <v>3579167027.330464</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1771391221738255</v>
+        <v>0.2087651199585062</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05001065532899738</v>
+        <v>0.03872595452931988</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
